--- a/Mifos Automation Excels/Loan Product/439-RBI-EI-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-B-EarlyRePayment-Loanproduct4.xlsx
+++ b/Mifos Automation Excels/Loan Product/439-RBI-EI-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-B-EarlyRePayment-Loanproduct4.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="2955" windowWidth="19050" windowHeight="5580"/>
+    <workbookView xWindow="180" yWindow="2955" windowWidth="19050" windowHeight="5580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ProductLoan_Input" sheetId="6" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>productname</t>
   </si>
@@ -140,20 +140,89 @@
     <t>Same as repayment period</t>
   </si>
   <si>
-    <t>Karr. Tr. Loa6</t>
-  </si>
-  <si>
-    <t>kar6</t>
+    <t>439-RBI-EI-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-B-EarlyRePayment</t>
+  </si>
+  <si>
+    <t>fundsource</t>
+  </si>
+  <si>
+    <t>loanprotfolio</t>
+  </si>
+  <si>
+    <t>interestreceivable</t>
+  </si>
+  <si>
+    <t>penaltiesreceivable</t>
+  </si>
+  <si>
+    <t>transferinsuspense</t>
+  </si>
+  <si>
+    <t>feesreceivable</t>
+  </si>
+  <si>
+    <t>incomefrominterest</t>
+  </si>
+  <si>
+    <t>incomefrompenalties</t>
+  </si>
+  <si>
+    <t>incomefromfees</t>
+  </si>
+  <si>
+    <t>incomefromrecoveryrepayments</t>
+  </si>
+  <si>
+    <t>loseswrittenoff</t>
+  </si>
+  <si>
+    <t>overpaymentliability</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loan portfolio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interest Receivable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penalties Receivable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer in Suspence </t>
+  </si>
+  <si>
+    <t>Fees Receivable</t>
+  </si>
+  <si>
+    <t>Income from interest</t>
+  </si>
+  <si>
+    <t>Income from penalties</t>
+  </si>
+  <si>
+    <t>Income from fees</t>
+  </si>
+  <si>
+    <t>Income from recovery repayments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Losses Writtenoff </t>
+  </si>
+  <si>
+    <t>Overpayment Liability</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mmmm\-yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -305,6 +374,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -339,6 +409,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -514,20 +585,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="46.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -535,7 +606,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -543,15 +614,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15">
+      <c r="B3" s="5">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -559,7 +630,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -567,7 +638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1">
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -575,7 +646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
@@ -583,7 +654,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -591,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -599,7 +670,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
@@ -607,15 +678,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="12" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -623,7 +694,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -631,7 +702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1">
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -639,7 +710,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
@@ -647,7 +718,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
@@ -655,7 +726,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -663,7 +734,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -671,7 +742,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -679,7 +750,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -687,7 +758,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -695,7 +766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>38</v>
       </c>
@@ -703,7 +774,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
@@ -711,7 +782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>22</v>
       </c>
@@ -719,7 +790,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>23</v>
       </c>
@@ -727,7 +798,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>37</v>
       </c>
@@ -735,7 +806,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>33</v>
       </c>
@@ -743,12 +814,108 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="5">
         <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -758,20 +925,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
